--- a/Data Structures/hash_table/hash_locked.xlsx
+++ b/Data Structures/hash_table/hash_locked.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="465" windowWidth="14805" windowHeight="7650"/>
+    <workbookView xWindow="240" yWindow="585" windowWidth="14805" windowHeight="7530"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1359,11 +1359,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="105181568"/>
-        <c:axId val="105183488"/>
+        <c:axId val="117480832"/>
+        <c:axId val="117491968"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="105181568"/>
+        <c:axId val="117480832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1392,7 +1392,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="105183488"/>
+        <c:crossAx val="117491968"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1400,7 +1400,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="105183488"/>
+        <c:axId val="117491968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1430,7 +1430,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="105181568"/>
+        <c:crossAx val="117480832"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1572,6 +1572,30 @@
               <c:numCache>
                 <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>5259103</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>466787</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5710641</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>266389</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>327867</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3420209</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3250559</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3791936</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -1597,6 +1621,30 @@
               <c:numCache>
                 <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>6656917</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9002881</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9632725</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7810362</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6012249</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2923021</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>962741</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1070428</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -1612,11 +1660,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="105941248"/>
-        <c:axId val="105943424"/>
+        <c:axId val="40809600"/>
+        <c:axId val="40811520"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="105941248"/>
+        <c:axId val="40809600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1644,7 +1692,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="105943424"/>
+        <c:crossAx val="40811520"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1652,7 +1700,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="105943424"/>
+        <c:axId val="40811520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1681,7 +1729,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="105941248"/>
+        <c:crossAx val="40809600"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1822,6 +1870,30 @@
               <c:numCache>
                 <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>5245638</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5511826</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>203922</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5578845</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5613795</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5666864</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5392578</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5609282</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -1847,6 +1919,30 @@
               <c:numCache>
                 <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>6579167</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9375598</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3912551</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3748765</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4614069</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3336465</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3289507</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3254236</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -1862,11 +1958,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="105982208"/>
-        <c:axId val="105988480"/>
+        <c:axId val="41706624"/>
+        <c:axId val="41708544"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="105982208"/>
+        <c:axId val="41706624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1894,7 +1990,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="105988480"/>
+        <c:crossAx val="41708544"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1902,7 +1998,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="105988480"/>
+        <c:axId val="41708544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1931,7 +2027,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="105982208"/>
+        <c:crossAx val="41706624"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2166,6 +2262,30 @@
               <c:numCache>
                 <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>5195789</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>422011</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5430192</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>269770</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8571168</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5393356</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5257174</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5275323</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -2191,6 +2311,30 @@
               <c:numCache>
                 <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>5222770</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>435130</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5285261</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5293489</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>882320</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>968783</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5917385</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>532409</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -2216,6 +2360,30 @@
               <c:numCache>
                 <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>5247374</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>411682</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5232432</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5313624</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>328877</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>901229</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5624799</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5671876</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -2241,6 +2409,30 @@
               <c:numCache>
                 <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>6721549</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9142805</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3657088</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4099466</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4034462</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4085858</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4640774</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3704649</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -2266,6 +2458,30 @@
               <c:numCache>
                 <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>6644983</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9349169</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4837665</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>352</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>330</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4032198</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3250171</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3648672</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -2291,6 +2507,30 @@
               <c:numCache>
                 <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>6625124</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6621240</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5667697</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8987555</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3144250</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>519</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3302377</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3737248</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -2306,11 +2546,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="106036224"/>
-        <c:axId val="112796800"/>
+        <c:axId val="41752448"/>
+        <c:axId val="41779200"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="106036224"/>
+        <c:axId val="41752448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2339,7 +2579,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="112796800"/>
+        <c:crossAx val="41779200"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2347,7 +2587,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="112796800"/>
+        <c:axId val="41779200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2377,7 +2617,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="106036224"/>
+        <c:crossAx val="41752448"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2747,11 +2987,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="112834048"/>
-        <c:axId val="112835968"/>
+        <c:axId val="41918848"/>
+        <c:axId val="41920768"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="112834048"/>
+        <c:axId val="41918848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2780,7 +3020,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="112835968"/>
+        <c:crossAx val="41920768"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2788,7 +3028,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="112835968"/>
+        <c:axId val="41920768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2818,7 +3058,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="112834048"/>
+        <c:crossAx val="41918848"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2903,6 +3143,30 @@
               <c:numCache>
                 <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>5251684</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>440490</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5733055</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>268263</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>325005</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3809848</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3539978</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2616898</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -2928,6 +3192,30 @@
               <c:numCache>
                 <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>5259103</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>466787</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5710641</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>266389</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>327867</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3420209</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3250559</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3791936</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -2953,6 +3241,30 @@
               <c:numCache>
                 <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>5245638</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5511826</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>203922</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5578845</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5613795</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5666864</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5392578</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5609282</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -2978,6 +3290,30 @@
               <c:numCache>
                 <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>5222893</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5701141</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>206432</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>265261</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4698904</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4115696</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3662885</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4534354</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -3003,6 +3339,30 @@
               <c:numCache>
                 <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>5230014</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>441885</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>475096</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>452690</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5784608</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10949777</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2968397</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2491745</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -3018,11 +3378,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="113200128"/>
-        <c:axId val="113210496"/>
+        <c:axId val="41981824"/>
+        <c:axId val="41988096"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="113200128"/>
+        <c:axId val="41981824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3050,7 +3410,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="113210496"/>
+        <c:crossAx val="41988096"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3058,7 +3418,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="113210496"/>
+        <c:axId val="41988096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3087,7 +3447,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="113200128"/>
+        <c:crossAx val="41981824"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3171,6 +3531,30 @@
               <c:numCache>
                 <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>6635086</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6071830</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5037102</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>328</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5999060</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4259821</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4014429</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3984903</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -3196,6 +3580,30 @@
               <c:numCache>
                 <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>6652441</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6722470</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6555153</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4112756</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5219077</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6324828</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>802870</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>774152</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -3221,6 +3629,30 @@
               <c:numCache>
                 <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>6656917</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9002881</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9632725</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7810362</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6012249</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2923021</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>962741</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1070428</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -3246,6 +3678,30 @@
               <c:numCache>
                 <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>6579167</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9375598</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3912551</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3748765</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4614069</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3336465</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3289507</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3254236</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -3271,6 +3727,30 @@
               <c:numCache>
                 <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>6645439</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6643010</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5774060</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3580392</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4279751</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1097226</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1840131</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>947083</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -3296,6 +3776,30 @@
               <c:numCache>
                 <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>6594579</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6369565</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7150808</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1182672</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3102419</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2798104</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>716814</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>812753</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -3311,11 +3815,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="113260032"/>
-        <c:axId val="113261952"/>
+        <c:axId val="42193280"/>
+        <c:axId val="42195200"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="113260032"/>
+        <c:axId val="42193280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3343,7 +3847,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="113261952"/>
+        <c:crossAx val="42195200"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3351,7 +3855,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="113261952"/>
+        <c:axId val="42195200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3380,7 +3884,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="113260032"/>
+        <c:crossAx val="42193280"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3549,11 +4053,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="113300992"/>
-        <c:axId val="113302912"/>
+        <c:axId val="44863872"/>
+        <c:axId val="44865792"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="113300992"/>
+        <c:axId val="44863872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3582,7 +4086,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="113302912"/>
+        <c:crossAx val="44865792"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3590,7 +4094,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="113302912"/>
+        <c:axId val="44865792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3620,7 +4124,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="113300992"/>
+        <c:crossAx val="44863872"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3790,11 +4294,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="113341952"/>
-        <c:axId val="113343872"/>
+        <c:axId val="46829952"/>
+        <c:axId val="46831872"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="113341952"/>
+        <c:axId val="46829952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3823,7 +4327,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="113343872"/>
+        <c:crossAx val="46831872"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3831,7 +4335,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="113343872"/>
+        <c:axId val="46831872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3861,7 +4365,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="113341952"/>
+        <c:crossAx val="46829952"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4031,11 +4535,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="113382912"/>
-        <c:axId val="113384832"/>
+        <c:axId val="57233792"/>
+        <c:axId val="57235712"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="113382912"/>
+        <c:axId val="57233792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4064,7 +4568,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="113384832"/>
+        <c:crossAx val="57235712"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4072,7 +4576,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="113384832"/>
+        <c:axId val="57235712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4102,7 +4606,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="113382912"/>
+        <c:crossAx val="57233792"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4470,11 +4974,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="113436928"/>
-        <c:axId val="112923008"/>
+        <c:axId val="57865344"/>
+        <c:axId val="57867264"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="113436928"/>
+        <c:axId val="57865344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4503,7 +5007,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="112923008"/>
+        <c:crossAx val="57867264"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4511,7 +5015,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="112923008"/>
+        <c:axId val="57867264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4541,7 +5045,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="113436928"/>
+        <c:crossAx val="57865344"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4654,6 +5158,30 @@
               <c:numCache>
                 <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>6654740</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6482534</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8283099</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4603674</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1302441</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>390624</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>250676</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>164200</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -4712,6 +5240,30 @@
               <c:numCache>
                 <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>6721549</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9142805</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3657088</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4099466</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4034462</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4085858</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4640774</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3704649</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -4770,6 +5322,30 @@
               <c:numCache>
                 <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>6644983</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9349169</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4837665</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>352</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>330</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4032198</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3250171</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3648672</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -4828,6 +5404,30 @@
               <c:numCache>
                 <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>6619330</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>207118</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>22126</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5394062</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4904156</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4211687</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3106720</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>776818</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -4886,6 +5486,30 @@
               <c:numCache>
                 <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>6635086</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6071830</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5037102</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>328</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5999060</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4259821</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4014429</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3984903</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -4944,6 +5568,30 @@
               <c:numCache>
                 <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>6652441</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6722470</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6555153</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4112756</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5219077</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6324828</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>802870</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>774152</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -5002,6 +5650,30 @@
               <c:numCache>
                 <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>6656917</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9002881</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9632725</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7810362</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6012249</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2923021</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>962741</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1070428</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -5060,6 +5732,30 @@
               <c:numCache>
                 <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>6579167</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9375598</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3912551</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3748765</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4614069</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3336465</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3289507</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3254236</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -5118,6 +5814,30 @@
               <c:numCache>
                 <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>6645439</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6643010</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5774060</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3580392</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4279751</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1097226</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1840131</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>947083</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -5176,6 +5896,30 @@
               <c:numCache>
                 <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>6625124</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6621240</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5667697</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8987555</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3144250</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>519</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3302377</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3737248</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -5234,6 +5978,30 @@
               <c:numCache>
                 <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>6571878</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6424347</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5281711</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>198</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>201</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2677151</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1022400</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>11716</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -5292,6 +6060,30 @@
               <c:numCache>
                 <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>6594579</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6369565</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7150808</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1182672</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3102419</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2798104</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>716814</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>812753</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -5307,11 +6099,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="106052992"/>
-        <c:axId val="106059264"/>
+        <c:axId val="122852480"/>
+        <c:axId val="122854400"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="106052992"/>
+        <c:axId val="122852480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5339,7 +6131,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="106059264"/>
+        <c:crossAx val="122854400"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5347,7 +6139,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="106059264"/>
+        <c:axId val="122854400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5376,7 +6168,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="106052992"/>
+        <c:crossAx val="122852480"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6292,11 +7084,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="112984832"/>
-        <c:axId val="112986752"/>
+        <c:axId val="58416512"/>
+        <c:axId val="58422784"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="112984832"/>
+        <c:axId val="58416512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6325,7 +7117,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="112986752"/>
+        <c:crossAx val="58422784"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6333,7 +7125,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="112986752"/>
+        <c:axId val="58422784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6363,7 +7155,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="112984832"/>
+        <c:crossAx val="58416512"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6492,6 +7284,30 @@
               <c:numCache>
                 <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>3602641</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>199744</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>205712</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>275634</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>327633</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10195</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1942</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2139</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -6550,6 +7366,30 @@
               <c:numCache>
                 <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>5195789</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>422011</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5430192</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>269770</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8571168</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5393356</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5257174</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5275323</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -6608,6 +7448,30 @@
               <c:numCache>
                 <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>5222770</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>435130</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5285261</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5293489</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>882320</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>968783</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5917385</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>532409</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -6666,6 +7530,30 @@
               <c:numCache>
                 <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>5214815</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>477470</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>480802</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>461308</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6500141</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>364991</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>392194</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>404568</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -6724,6 +7612,30 @@
               <c:numCache>
                 <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>5251684</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>440490</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5733055</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>268263</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>325005</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3809848</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3539978</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2616898</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -6843,6 +7755,30 @@
               <c:numCache>
                 <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>5259103</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>466787</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5710641</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>266389</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>327867</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3420209</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3250559</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3791936</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -6901,6 +7837,30 @@
               <c:numCache>
                 <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>5245638</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5511826</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>203922</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5578845</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5613795</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5666864</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5392578</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5609282</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -7099,11 +8059,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="113048576"/>
-        <c:axId val="113071232"/>
+        <c:axId val="58451840"/>
+        <c:axId val="59449344"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="113048576"/>
+        <c:axId val="58451840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7132,7 +8092,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="113071232"/>
+        <c:crossAx val="59449344"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7140,7 +8100,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="113071232"/>
+        <c:axId val="59449344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7170,7 +8130,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="113048576"/>
+        <c:crossAx val="58451840"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7291,6 +8251,30 @@
               <c:numCache>
                 <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>6654740</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6482534</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8283099</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4603674</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1302441</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>390624</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>250676</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>164200</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -7349,6 +8333,30 @@
               <c:numCache>
                 <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>6721549</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9142805</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3657088</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4099466</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4034462</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4085858</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4640774</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3704649</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -7407,6 +8415,30 @@
               <c:numCache>
                 <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>6644983</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9349169</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4837665</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>352</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>330</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4032198</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3250171</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3648672</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -7465,6 +8497,30 @@
               <c:numCache>
                 <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>6619330</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>207118</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>22126</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5394062</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4904156</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4211687</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3106720</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>776818</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -7523,6 +8579,30 @@
               <c:numCache>
                 <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>6635086</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6071830</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5037102</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>328</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5999060</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4259821</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4014429</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3984903</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -7581,6 +8661,30 @@
               <c:numCache>
                 <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>6652441</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6722470</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6555153</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4112756</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5219077</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6324828</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>802870</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>774152</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -7639,6 +8743,30 @@
               <c:numCache>
                 <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>6656917</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9002881</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9632725</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7810362</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6012249</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2923021</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>962741</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1070428</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -7697,6 +8825,30 @@
               <c:numCache>
                 <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>6579167</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9375598</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3912551</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3748765</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4614069</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3336465</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3289507</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3254236</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -7886,11 +9038,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="113784320"/>
-        <c:axId val="113786240"/>
+        <c:axId val="66474368"/>
+        <c:axId val="66476288"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="113784320"/>
+        <c:axId val="66474368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7918,7 +9070,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="113786240"/>
+        <c:crossAx val="66476288"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7926,7 +9078,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="113786240"/>
+        <c:axId val="66476288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7955,7 +9107,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="113784320"/>
+        <c:crossAx val="66474368"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8164,6 +9316,30 @@
               <c:numCache>
                 <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>5222893</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5701141</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>206432</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>265261</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4698904</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4115696</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3662885</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4534354</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -8222,6 +9398,30 @@
               <c:numCache>
                 <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>6645439</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6643010</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5774060</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3580392</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4279751</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1097226</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1840131</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>947083</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -8237,11 +9437,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="113817088"/>
-        <c:axId val="113819008"/>
+        <c:axId val="80478592"/>
+        <c:axId val="80480512"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="113817088"/>
+        <c:axId val="80478592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8269,7 +9469,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="113819008"/>
+        <c:crossAx val="80480512"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -8277,7 +9477,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="113819008"/>
+        <c:axId val="80480512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8306,7 +9506,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="113817088"/>
+        <c:crossAx val="80478592"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8505,6 +9705,30 @@
               <c:numCache>
                 <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>5247374</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>411682</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5232432</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5313624</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>328877</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>901229</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5624799</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5671876</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -8563,6 +9787,30 @@
               <c:numCache>
                 <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>6625124</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6621240</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5667697</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8987555</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3144250</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>519</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3302377</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3737248</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -8578,11 +9826,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="113854336"/>
-        <c:axId val="113860608"/>
+        <c:axId val="90977024"/>
+        <c:axId val="90978944"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="113854336"/>
+        <c:axId val="90977024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8610,7 +9858,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="113860608"/>
+        <c:crossAx val="90978944"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -8618,7 +9866,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="113860608"/>
+        <c:axId val="90978944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8647,7 +9895,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="113854336"/>
+        <c:crossAx val="90977024"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8846,6 +10094,30 @@
               <c:numCache>
                 <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>5231211</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>471227</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6540450</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6787804</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2336</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4883301</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>668393</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1541793</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -8904,6 +10176,30 @@
               <c:numCache>
                 <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>6571878</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6424347</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5281711</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>198</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>201</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2677151</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1022400</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>11716</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -8919,11 +10215,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="113575808"/>
-        <c:axId val="113582080"/>
+        <c:axId val="91005696"/>
+        <c:axId val="91007616"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="113575808"/>
+        <c:axId val="91005696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8951,7 +10247,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="113582080"/>
+        <c:crossAx val="91007616"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -8959,7 +10255,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="113582080"/>
+        <c:axId val="91007616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8988,7 +10284,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="113575808"/>
+        <c:crossAx val="91005696"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -9187,6 +10483,30 @@
               <c:numCache>
                 <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>5230014</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>441885</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>475096</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>452690</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5784608</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10949777</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2968397</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2491745</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -9245,6 +10565,30 @@
               <c:numCache>
                 <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>6594579</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6369565</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7150808</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1182672</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3102419</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2798104</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>716814</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>812753</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -9260,11 +10604,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="113608576"/>
-        <c:axId val="113610752"/>
+        <c:axId val="93807360"/>
+        <c:axId val="93809280"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="113608576"/>
+        <c:axId val="93807360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9292,7 +10636,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="113610752"/>
+        <c:crossAx val="93809280"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -9300,7 +10644,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="113610752"/>
+        <c:axId val="93809280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9329,2151 +10673,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="113608576"/>
+        <c:crossAx val="93807360"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:overlay val="0"/>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart27.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
-  <c:lang val="en-IE"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$A$11</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Stoker (32 Core) Locked</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:cat>
-            <c:numRef>
-              <c:f>Sheet1!$B$10:$I$10</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>32</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>64</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>128</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$B$11:$I$11</c:f>
-              <c:numCache>
-                <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>4875611</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>9367068</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4845830</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4082338</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>901883</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1147135</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>322019</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>144900</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$A$12</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Stoker (32 Core) CAS lock</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:cat>
-            <c:numRef>
-              <c:f>Sheet1!$B$10:$I$10</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>32</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>64</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>128</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$B$12:$I$12</c:f>
-              <c:numCache>
-                <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>7012559</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>7041295</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>9211708</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2981928</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>3137980</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1628882</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2155367</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>3416986</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$A$13</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Stoker (32 Core) CAS lock No Delay</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:cat>
-            <c:numRef>
-              <c:f>Sheet1!$B$10:$I$10</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>32</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>64</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>128</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$B$13:$I$13</c:f>
-              <c:numCache>
-                <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>6715867</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>6752067</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>6628642</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>5760092</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>3979916</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2310354</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>3151047</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2543759</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$A$14</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Stoker (32 Core) Ticket</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:cat>
-            <c:numRef>
-              <c:f>Sheet1!$B$10:$I$10</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>32</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>64</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>128</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$B$14:$I$14</c:f>
-              <c:numCache>
-                <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>5150153</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>9554272</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4918471</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>5050444</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1412</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1873</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>878</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2474</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="4"/>
-          <c:order val="4"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$A$15</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Stoker (32 Core) TAS</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:cat>
-            <c:numRef>
-              <c:f>Sheet1!$B$10:$I$10</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>32</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>64</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>128</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$B$15:$I$15</c:f>
-              <c:numCache>
-                <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>4423642</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>7162218</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>6104523</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4812114</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>4801184</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>4377133</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2666000</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>3606243</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="5"/>
-          <c:order val="5"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$A$16</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Stoker (32 Core) TAS No Pause</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:cat>
-            <c:numRef>
-              <c:f>Sheet1!$B$10:$I$10</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>32</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>64</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>128</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$B$16:$I$16</c:f>
-              <c:numCache>
-                <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>7007817</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>7010131</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3870721</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3399176</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2882557</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>660447</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>181497</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>121260</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="6"/>
-          <c:order val="6"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$A$17</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Stoker (32 Core) TTAS No Pause</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:cat>
-            <c:numRef>
-              <c:f>Sheet1!$B$10:$I$10</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>32</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>64</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>128</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$B$17:$I$17</c:f>
-              <c:numCache>
-                <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>6045592</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>7722115</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>6879048</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4191779</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>984649</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>3629856</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>571851</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>280193</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="7"/>
-          <c:order val="7"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$A$18</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Stoker (32 Core) TTAS</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:cat>
-            <c:numRef>
-              <c:f>Sheet1!$B$10:$I$10</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>32</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>64</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>128</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$B$18:$I$18</c:f>
-              <c:numCache>
-                <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>3792016</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>3862107</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3535477</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3497475</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1805405</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1820880</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1959143</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1758261</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="8"/>
-          <c:order val="8"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$A$19</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Stoker (32 Core) TTAS_RELAX</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:cat>
-            <c:numRef>
-              <c:f>Sheet1!$B$10:$I$10</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>32</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>64</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>128</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$B$19:$I$19</c:f>
-              <c:numCache>
-                <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>4650760</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2541169</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>245</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2387780</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>181</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>728456</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>431363</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>332129</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="9"/>
-          <c:order val="9"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$A$20</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Stoker (32 Core) CASLOCK_RELAX</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:cat>
-            <c:numRef>
-              <c:f>Sheet1!$B$10:$I$10</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>32</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>64</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>128</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$B$20:$I$20</c:f>
-              <c:numCache>
-                <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>6725881</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>9519390</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>6758831</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>9016384</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5456403</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1131220</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>974678</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2303453</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="10"/>
-          <c:order val="10"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$A$21</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Stoker (32 Core) TICKET_RELAX</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:cat>
-            <c:numRef>
-              <c:f>Sheet1!$B$10:$I$10</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>32</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>64</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>128</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$B$21:$I$21</c:f>
-              <c:numCache>
-                <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>6688723</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>9590053</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>5769902</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>145</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>472257</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>528192</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>376520</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>318706</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="11"/>
-          <c:order val="11"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$A$22</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Stoker (32 Core) TAS_RELAX</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:cat>
-            <c:numRef>
-              <c:f>Sheet1!$B$10:$I$10</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>32</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>64</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>128</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$B$22:$I$22</c:f>
-              <c:numCache>
-                <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>6149391</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>3781498</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3485778</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>5253897</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>698959</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>75</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>353006</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>125211</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:marker val="1"/>
-        <c:smooth val="0"/>
-        <c:axId val="121099392"/>
-        <c:axId val="44052480"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="121099392"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="44052480"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="44052480"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines/>
-        <c:numFmt formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="121099392"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:layout/>
-      <c:overlay val="0"/>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart28.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
-  <c:lang val="en-IE"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$A$51</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Stoker (32 Core) Locked</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:cat>
-            <c:numRef>
-              <c:f>Sheet1!$B$50:$I$50</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>32</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>64</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>128</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$B$51:$I$51</c:f>
-              <c:numCache>
-                <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>5376226</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>5334820</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>9455593</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>6261035</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2953829</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>640541</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>754741</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>571518</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$A$52</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Stoker (32 Core) CAS lock</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:cat>
-            <c:numRef>
-              <c:f>Sheet1!$B$50:$I$50</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>32</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>64</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>128</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$B$52:$I$52</c:f>
-              <c:numCache>
-                <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>6135449</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>9447698</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>6017988</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4023272</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1347708</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>959161</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>886455</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>491099</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$A$53</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Stoker (32 Core) CAS lock No Delay</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:cat>
-            <c:numRef>
-              <c:f>Sheet1!$B$50:$I$50</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>32</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>64</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>128</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$B$53:$I$53</c:f>
-              <c:numCache>
-                <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>6564579</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>9489459</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>8747281</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3462425</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2092436</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>927285</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>770767</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>423460</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$A$54</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Stoker (32 Core) Ticket</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:cat>
-            <c:numRef>
-              <c:f>Sheet1!$B$50:$I$50</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>32</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>64</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>128</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$B$54:$I$54</c:f>
-              <c:numCache>
-                <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>6988946</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>6985964</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>9341871</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3312068</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>634065</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>694543</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>316418</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>210019</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="4"/>
-          <c:order val="4"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$A$55</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Stoker (32 Core) TAS</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:cat>
-            <c:numRef>
-              <c:f>Sheet1!$B$50:$I$50</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>32</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>64</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>128</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$B$55:$I$55</c:f>
-              <c:numCache>
-                <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>3934571</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>3511842</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3894813</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3778068</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2472944</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>532524</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>468696</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>434443</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="5"/>
-          <c:order val="5"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$A$56</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Stoker (32 Core) TAS No Pause</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:cat>
-            <c:numRef>
-              <c:f>Sheet1!$B$50:$I$50</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>32</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>64</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>128</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$B$56:$I$56</c:f>
-              <c:numCache>
-                <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>6907259</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>6906602</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>6327285</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1023132</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1040806</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>309393</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>168339</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>107534</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="6"/>
-          <c:order val="6"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$A$57</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Stoker (32 Core) TTAS No Pause</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:cat>
-            <c:numRef>
-              <c:f>Sheet1!$B$50:$I$50</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>32</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>64</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>128</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$B$57:$I$57</c:f>
-              <c:numCache>
-                <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>5186993</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1012075</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1399533</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>582669</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1060055</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>779154</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>298145</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>188617</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="7"/>
-          <c:order val="7"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$A$58</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Stoker (32 Core) TTAS</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:cat>
-            <c:numRef>
-              <c:f>Sheet1!$B$50:$I$50</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>32</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>64</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>128</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$B$58:$I$58</c:f>
-              <c:numCache>
-                <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>5874474</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>9592166</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>9451750</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1400691</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>406690</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>549583</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>653078</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>319495</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="8"/>
-          <c:order val="8"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$A$59</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Stoker (32 Core) TTAS_RELAX</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:cat>
-            <c:numRef>
-              <c:f>Sheet1!$B$50:$I$50</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>32</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>64</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>128</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$B$59:$I$59</c:f>
-              <c:numCache>
-                <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>6910247</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>6890531</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1144738</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>656616</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>705136</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>375396</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>252884</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>234378</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="9"/>
-          <c:order val="9"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$A$60</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Stoker (32 Core) CASLOCK_RELAX</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:cat>
-            <c:numRef>
-              <c:f>Sheet1!$B$50:$I$50</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>32</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>64</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>128</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$B$60:$I$60</c:f>
-              <c:numCache>
-                <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>4876333</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>9531472</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1527599</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>675024</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>459893</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>856607</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>756908</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>314031</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="10"/>
-          <c:order val="10"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$A$61</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Stoker (32 Core) TICKET_RELAX</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:cat>
-            <c:numRef>
-              <c:f>Sheet1!$B$50:$I$50</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>32</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>64</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>128</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$B$61:$I$61</c:f>
-              <c:numCache>
-                <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>1209830</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>984525</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1348342</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>413151</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>539010</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1025548</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>242124</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>228890</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="11"/>
-          <c:order val="11"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$A$62</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Stoker (32 Core) TAS_RELAX</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:cat>
-            <c:numRef>
-              <c:f>Sheet1!$B$50:$I$50</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>32</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>64</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>128</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$B$62:$I$62</c:f>
-              <c:numCache>
-                <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>6232856</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>8713693</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>946051</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>597304</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1155143</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>244893</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>139586</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>124933</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:marker val="1"/>
-        <c:smooth val="0"/>
-        <c:axId val="121505664"/>
-        <c:axId val="121507200"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="121505664"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="121507200"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="121507200"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines/>
-        <c:numFmt formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="121505664"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -11588,6 +10794,30 @@
               <c:numCache>
                 <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>3602641</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>199744</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>205712</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>275634</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>327633</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10195</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1942</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2139</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -11646,6 +10876,30 @@
               <c:numCache>
                 <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>5195789</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>422011</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5430192</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>269770</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8571168</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5393356</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5257174</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5275323</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -11704,6 +10958,30 @@
               <c:numCache>
                 <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>5222770</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>435130</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5285261</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5293489</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>882320</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>968783</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5917385</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>532409</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -11762,6 +11040,30 @@
               <c:numCache>
                 <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>5214815</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>477470</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>480802</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>461308</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6500141</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>364991</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>392194</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>404568</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -11820,6 +11122,30 @@
               <c:numCache>
                 <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>5251684</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>440490</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5733055</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>268263</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>325005</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3809848</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3539978</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2616898</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -11939,6 +11265,30 @@
               <c:numCache>
                 <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>5259103</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>466787</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5710641</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>266389</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>327867</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3420209</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3250559</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3791936</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -11997,6 +11347,30 @@
               <c:numCache>
                 <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>5245638</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5511826</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>203922</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5578845</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5613795</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5666864</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5392578</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5609282</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -12055,6 +11429,30 @@
               <c:numCache>
                 <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>5222893</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5701141</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>206432</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>265261</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4698904</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4115696</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3662885</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4534354</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -12113,6 +11511,30 @@
               <c:numCache>
                 <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>5247374</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>411682</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5232432</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5313624</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>328877</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>901229</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5624799</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5671876</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -12171,6 +11593,30 @@
               <c:numCache>
                 <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>5231211</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>471227</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6540450</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6787804</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2336</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4883301</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>668393</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1541793</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -12229,6 +11675,30 @@
               <c:numCache>
                 <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>5230014</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>441885</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>475096</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>452690</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5784608</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10949777</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2968397</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2491745</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -12244,11 +11714,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="106101376"/>
-        <c:axId val="106238720"/>
+        <c:axId val="131179264"/>
+        <c:axId val="131181184"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="106101376"/>
+        <c:axId val="131179264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12277,7 +11747,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="106238720"/>
+        <c:crossAx val="131181184"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -12285,7 +11755,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="106238720"/>
+        <c:axId val="131181184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12315,7 +11785,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="106101376"/>
+        <c:crossAx val="131179264"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -12462,6 +11932,30 @@
               <c:numCache>
                 <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>3602641</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>199744</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>205712</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>275634</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>327633</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10195</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1942</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2139</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -12487,6 +11981,30 @@
               <c:numCache>
                 <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>6654740</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6482534</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8283099</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4603674</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1302441</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>390624</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>250676</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>164200</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -12502,11 +12020,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="106285696"/>
-        <c:axId val="106287872"/>
+        <c:axId val="132825088"/>
+        <c:axId val="132827008"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="106285696"/>
+        <c:axId val="132825088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12535,7 +12053,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="106287872"/>
+        <c:crossAx val="132827008"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -12543,7 +12061,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="106287872"/>
+        <c:axId val="132827008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12573,7 +12091,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="106285696"/>
+        <c:crossAx val="132825088"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -12716,6 +12234,30 @@
               <c:numCache>
                 <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>5195789</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>422011</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5430192</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>269770</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8571168</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5393356</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5257174</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5275323</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -12741,6 +12283,30 @@
               <c:numCache>
                 <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>6721549</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9142805</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3657088</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4099466</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4034462</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4085858</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4640774</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3704649</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -12756,11 +12322,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="106322560"/>
-        <c:axId val="106324736"/>
+        <c:axId val="133420160"/>
+        <c:axId val="133422080"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="106322560"/>
+        <c:axId val="133420160"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12789,7 +12355,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="106324736"/>
+        <c:crossAx val="133422080"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -12797,7 +12363,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="106324736"/>
+        <c:axId val="133422080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12827,7 +12393,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="106322560"/>
+        <c:crossAx val="133420160"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -12969,6 +12535,30 @@
               <c:numCache>
                 <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>5222770</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>435130</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5285261</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5293489</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>882320</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>968783</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5917385</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>532409</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -12994,6 +12584,30 @@
               <c:numCache>
                 <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>6644983</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9349169</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4837665</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>352</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>330</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4032198</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3250171</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3648672</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -13009,11 +12623,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="106355328"/>
-        <c:axId val="106377984"/>
+        <c:axId val="133588096"/>
+        <c:axId val="133590400"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="106355328"/>
+        <c:axId val="133588096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13041,7 +12655,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="106377984"/>
+        <c:crossAx val="133590400"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -13049,7 +12663,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="106377984"/>
+        <c:axId val="133590400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13078,7 +12692,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="106355328"/>
+        <c:crossAx val="133588096"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -13219,6 +12833,30 @@
               <c:numCache>
                 <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>5214815</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>477470</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>480802</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>461308</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6500141</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>364991</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>392194</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>404568</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -13244,6 +12882,30 @@
               <c:numCache>
                 <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>6619330</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>207118</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>22126</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5394062</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4904156</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4211687</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3106720</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>776818</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -13259,11 +12921,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="106400384"/>
-        <c:axId val="106402560"/>
+        <c:axId val="133865856"/>
+        <c:axId val="133868544"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="106400384"/>
+        <c:axId val="133865856"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13291,7 +12953,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="106402560"/>
+        <c:crossAx val="133868544"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -13299,7 +12961,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="106402560"/>
+        <c:axId val="133868544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13328,7 +12990,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="106400384"/>
+        <c:crossAx val="133865856"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -13469,6 +13131,30 @@
               <c:numCache>
                 <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>5251684</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>440490</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5733055</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>268263</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>325005</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3809848</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3539978</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2616898</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -13494,6 +13180,30 @@
               <c:numCache>
                 <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>6635086</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6071830</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5037102</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>328</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5999060</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4259821</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4014429</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3984903</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -13509,11 +13219,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="105847424"/>
-        <c:axId val="105857792"/>
+        <c:axId val="135441408"/>
+        <c:axId val="135525504"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="105847424"/>
+        <c:axId val="135441408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13541,7 +13251,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="105857792"/>
+        <c:crossAx val="135525504"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -13549,7 +13259,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="105857792"/>
+        <c:axId val="135525504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13578,7 +13288,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="105847424"/>
+        <c:crossAx val="135441408"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -13747,6 +13457,30 @@
               <c:numCache>
                 <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>6652441</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6722470</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6555153</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4112756</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5219077</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6324828</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>802870</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>774152</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -13762,11 +13496,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="105900288"/>
-        <c:axId val="105906560"/>
+        <c:axId val="40555648"/>
+        <c:axId val="40557568"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="105900288"/>
+        <c:axId val="40555648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13794,7 +13528,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="105906560"/>
+        <c:crossAx val="40557568"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -13802,7 +13536,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="105906560"/>
+        <c:axId val="40557568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13831,7 +13565,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="105900288"/>
+        <c:crossAx val="40555648"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -14680,66 +14414,6 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>1438275</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>119061</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>495300</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>123824</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1"/>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId27"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>23811</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>409575</xdr:colOff>
-      <xdr:row>60</xdr:row>
-      <xdr:rowOff>47624</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Chart 2"/>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId28"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -15032,8 +14706,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:O415"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A50" sqref="A50:I62"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B23" sqref="B23:I46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15549,313 +15223,697 @@
       <c r="A23" t="s">
         <v>52</v>
       </c>
-      <c r="B23" s="6"/>
-      <c r="C23" s="6"/>
-      <c r="D23" s="6"/>
-      <c r="E23" s="6"/>
-      <c r="F23" s="6"/>
-      <c r="G23" s="6"/>
-      <c r="H23" s="6"/>
-      <c r="I23" s="6"/>
+      <c r="B23" s="6">
+        <v>3602641</v>
+      </c>
+      <c r="C23" s="6">
+        <v>199744</v>
+      </c>
+      <c r="D23" s="6">
+        <v>205712</v>
+      </c>
+      <c r="E23" s="6">
+        <v>275634</v>
+      </c>
+      <c r="F23" s="6">
+        <v>327633</v>
+      </c>
+      <c r="G23" s="6">
+        <v>10195</v>
+      </c>
+      <c r="H23" s="6">
+        <v>1942</v>
+      </c>
+      <c r="I23" s="6">
+        <v>2139</v>
+      </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>53</v>
       </c>
-      <c r="B24" s="6"/>
-      <c r="C24" s="6"/>
-      <c r="D24" s="6"/>
-      <c r="E24" s="6"/>
-      <c r="F24" s="6"/>
-      <c r="G24" s="6"/>
-      <c r="H24" s="6"/>
-      <c r="I24" s="6"/>
+      <c r="B24" s="6">
+        <v>5195789</v>
+      </c>
+      <c r="C24" s="6">
+        <v>422011</v>
+      </c>
+      <c r="D24" s="6">
+        <v>5430192</v>
+      </c>
+      <c r="E24" s="6">
+        <v>269770</v>
+      </c>
+      <c r="F24" s="6">
+        <v>8571168</v>
+      </c>
+      <c r="G24" s="6">
+        <v>5393356</v>
+      </c>
+      <c r="H24" s="6">
+        <v>5257174</v>
+      </c>
+      <c r="I24" s="6">
+        <v>5275323</v>
+      </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>54</v>
       </c>
-      <c r="B25" s="6"/>
-      <c r="C25" s="6"/>
-      <c r="D25" s="6"/>
-      <c r="E25" s="6"/>
-      <c r="F25" s="6"/>
-      <c r="G25" s="6"/>
-      <c r="H25" s="6"/>
-      <c r="I25" s="6"/>
+      <c r="B25" s="6">
+        <v>5222770</v>
+      </c>
+      <c r="C25" s="6">
+        <v>435130</v>
+      </c>
+      <c r="D25" s="6">
+        <v>5285261</v>
+      </c>
+      <c r="E25" s="6">
+        <v>5293489</v>
+      </c>
+      <c r="F25" s="6">
+        <v>882320</v>
+      </c>
+      <c r="G25" s="7">
+        <v>968783</v>
+      </c>
+      <c r="H25" s="6">
+        <v>5917385</v>
+      </c>
+      <c r="I25" s="6">
+        <v>532409</v>
+      </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>55</v>
       </c>
-      <c r="B26" s="6"/>
-      <c r="C26" s="6"/>
-      <c r="D26" s="6"/>
-      <c r="E26" s="6"/>
-      <c r="F26" s="6"/>
-      <c r="G26" s="6"/>
-      <c r="H26" s="6"/>
-      <c r="I26" s="6"/>
+      <c r="B26" s="6">
+        <v>5214815</v>
+      </c>
+      <c r="C26" s="6">
+        <v>477470</v>
+      </c>
+      <c r="D26" s="6">
+        <v>480802</v>
+      </c>
+      <c r="E26" s="6">
+        <v>461308</v>
+      </c>
+      <c r="F26" s="6">
+        <v>6500141</v>
+      </c>
+      <c r="G26" s="7">
+        <v>364991</v>
+      </c>
+      <c r="H26" s="6">
+        <v>392194</v>
+      </c>
+      <c r="I26" s="6">
+        <v>404568</v>
+      </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>56</v>
       </c>
-      <c r="B27" s="6"/>
-      <c r="C27" s="6"/>
-      <c r="D27" s="6"/>
-      <c r="E27" s="6"/>
-      <c r="F27" s="6"/>
-      <c r="G27" s="6"/>
-      <c r="H27" s="6"/>
-      <c r="I27" s="6"/>
+      <c r="B27" s="6">
+        <v>5221499</v>
+      </c>
+      <c r="C27" s="6">
+        <v>383353</v>
+      </c>
+      <c r="D27" s="6">
+        <v>474558</v>
+      </c>
+      <c r="E27" s="6">
+        <v>454158</v>
+      </c>
+      <c r="F27" s="6">
+        <v>446258</v>
+      </c>
+      <c r="G27" s="6">
+        <v>10987613</v>
+      </c>
+      <c r="H27" s="6">
+        <v>5673147</v>
+      </c>
+      <c r="I27" s="6">
+        <v>5736945</v>
+      </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>57</v>
       </c>
-      <c r="B28" s="6"/>
-      <c r="C28" s="6"/>
-      <c r="D28" s="6"/>
-      <c r="E28" s="6"/>
-      <c r="F28" s="6"/>
-      <c r="G28" s="6"/>
-      <c r="H28" s="6"/>
-      <c r="I28" s="6"/>
+      <c r="B28" s="6">
+        <v>5251684</v>
+      </c>
+      <c r="C28" s="6">
+        <v>440490</v>
+      </c>
+      <c r="D28" s="6">
+        <v>5733055</v>
+      </c>
+      <c r="E28" s="6">
+        <v>268263</v>
+      </c>
+      <c r="F28" s="6">
+        <v>325005</v>
+      </c>
+      <c r="G28" s="6">
+        <v>3809848</v>
+      </c>
+      <c r="H28" s="6">
+        <v>3539978</v>
+      </c>
+      <c r="I28" s="6">
+        <v>2616898</v>
+      </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>58</v>
       </c>
-      <c r="B29" s="6"/>
-      <c r="C29" s="6"/>
-      <c r="D29" s="6"/>
-      <c r="E29" s="6"/>
-      <c r="F29" s="6"/>
-      <c r="G29" s="6"/>
-      <c r="H29" s="6"/>
-      <c r="I29" s="6"/>
+      <c r="B29" s="6">
+        <v>5259103</v>
+      </c>
+      <c r="C29" s="6">
+        <v>466787</v>
+      </c>
+      <c r="D29" s="6">
+        <v>5710641</v>
+      </c>
+      <c r="E29" s="6">
+        <v>266389</v>
+      </c>
+      <c r="F29" s="6">
+        <v>327867</v>
+      </c>
+      <c r="G29" s="6">
+        <v>3420209</v>
+      </c>
+      <c r="H29" s="6">
+        <v>3250559</v>
+      </c>
+      <c r="I29" s="6">
+        <v>3791936</v>
+      </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>59</v>
       </c>
-      <c r="B30" s="6"/>
-      <c r="C30" s="6"/>
-      <c r="D30" s="6"/>
-      <c r="E30" s="6"/>
-      <c r="F30" s="6"/>
-      <c r="G30" s="6"/>
-      <c r="H30" s="6"/>
-      <c r="I30" s="6"/>
+      <c r="B30" s="6">
+        <v>5245638</v>
+      </c>
+      <c r="C30" s="6">
+        <v>5511826</v>
+      </c>
+      <c r="D30" s="6">
+        <v>203922</v>
+      </c>
+      <c r="E30" s="6">
+        <v>5578845</v>
+      </c>
+      <c r="F30" s="6">
+        <v>5613795</v>
+      </c>
+      <c r="G30" s="6">
+        <v>5666864</v>
+      </c>
+      <c r="H30" s="6">
+        <v>5392578</v>
+      </c>
+      <c r="I30" s="6">
+        <v>5609282</v>
+      </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>60</v>
       </c>
-      <c r="B31" s="6"/>
-      <c r="C31" s="6"/>
-      <c r="D31" s="6"/>
-      <c r="E31" s="6"/>
-      <c r="F31" s="6"/>
-      <c r="G31" s="6"/>
-      <c r="H31" s="6"/>
-      <c r="I31" s="6"/>
+      <c r="B31" s="6">
+        <v>5222893</v>
+      </c>
+      <c r="C31" s="6">
+        <v>5701141</v>
+      </c>
+      <c r="D31" s="6">
+        <v>206432</v>
+      </c>
+      <c r="E31" s="6">
+        <v>265261</v>
+      </c>
+      <c r="F31" s="6">
+        <v>4698904</v>
+      </c>
+      <c r="G31" s="6">
+        <v>4115696</v>
+      </c>
+      <c r="H31" s="6">
+        <v>3662885</v>
+      </c>
+      <c r="I31" s="6">
+        <v>4534354</v>
+      </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>61</v>
       </c>
-      <c r="B32" s="6"/>
-      <c r="C32" s="6"/>
-      <c r="D32" s="6"/>
-      <c r="E32" s="6"/>
-      <c r="F32" s="6"/>
-      <c r="G32" s="6"/>
-      <c r="H32" s="6"/>
-      <c r="I32" s="6"/>
+      <c r="B32" s="6">
+        <v>5247374</v>
+      </c>
+      <c r="C32" s="6">
+        <v>411682</v>
+      </c>
+      <c r="D32" s="6">
+        <v>5232432</v>
+      </c>
+      <c r="E32" s="6">
+        <v>5313624</v>
+      </c>
+      <c r="F32" s="6">
+        <v>328877</v>
+      </c>
+      <c r="G32" s="6">
+        <v>901229</v>
+      </c>
+      <c r="H32" s="6">
+        <v>5624799</v>
+      </c>
+      <c r="I32" s="6">
+        <v>5671876</v>
+      </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>62</v>
       </c>
-      <c r="B33" s="6"/>
-      <c r="C33" s="6"/>
-      <c r="D33" s="6"/>
-      <c r="E33" s="6"/>
-      <c r="F33" s="6"/>
-      <c r="G33" s="6"/>
-      <c r="H33" s="6"/>
-      <c r="I33" s="6"/>
+      <c r="B33" s="6">
+        <v>5231211</v>
+      </c>
+      <c r="C33" s="6">
+        <v>471227</v>
+      </c>
+      <c r="D33" s="6">
+        <v>6540450</v>
+      </c>
+      <c r="E33" s="6">
+        <v>6787804</v>
+      </c>
+      <c r="F33" s="6">
+        <v>2336</v>
+      </c>
+      <c r="G33" s="6">
+        <v>4883301</v>
+      </c>
+      <c r="H33" s="6">
+        <v>668393</v>
+      </c>
+      <c r="I33" s="6">
+        <v>1541793</v>
+      </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>63</v>
       </c>
-      <c r="B34" s="6"/>
-      <c r="C34" s="6"/>
-      <c r="D34" s="6"/>
-      <c r="E34" s="6"/>
-      <c r="F34" s="6"/>
-      <c r="G34" s="6"/>
-      <c r="H34" s="6"/>
-      <c r="I34" s="6"/>
+      <c r="B34" s="6">
+        <v>5230014</v>
+      </c>
+      <c r="C34" s="6">
+        <v>441885</v>
+      </c>
+      <c r="D34" s="6">
+        <v>475096</v>
+      </c>
+      <c r="E34" s="6">
+        <v>452690</v>
+      </c>
+      <c r="F34" s="6">
+        <v>5784608</v>
+      </c>
+      <c r="G34" s="6">
+        <v>10949777</v>
+      </c>
+      <c r="H34" s="6">
+        <v>2968397</v>
+      </c>
+      <c r="I34" s="6">
+        <v>2491745</v>
+      </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>64</v>
       </c>
-      <c r="B35" s="6"/>
-      <c r="C35" s="6"/>
-      <c r="D35" s="6"/>
-      <c r="E35" s="6"/>
-      <c r="F35" s="6"/>
-      <c r="G35" s="6"/>
-      <c r="H35" s="6"/>
-      <c r="I35" s="6"/>
+      <c r="B35" s="6">
+        <v>6654740</v>
+      </c>
+      <c r="C35" s="6">
+        <v>6482534</v>
+      </c>
+      <c r="D35" s="6">
+        <v>8283099</v>
+      </c>
+      <c r="E35" s="6">
+        <v>4603674</v>
+      </c>
+      <c r="F35" s="6">
+        <v>1302441</v>
+      </c>
+      <c r="G35" s="6">
+        <v>390624</v>
+      </c>
+      <c r="H35" s="6">
+        <v>250676</v>
+      </c>
+      <c r="I35" s="6">
+        <v>164200</v>
+      </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>65</v>
       </c>
-      <c r="B36" s="6"/>
-      <c r="C36" s="6"/>
-      <c r="D36" s="6"/>
-      <c r="E36" s="6"/>
-      <c r="F36" s="6"/>
-      <c r="G36" s="6"/>
-      <c r="H36" s="6"/>
-      <c r="I36" s="6"/>
+      <c r="B36" s="6">
+        <v>6721549</v>
+      </c>
+      <c r="C36" s="6">
+        <v>9142805</v>
+      </c>
+      <c r="D36" s="6">
+        <v>3657088</v>
+      </c>
+      <c r="E36" s="6">
+        <v>4099466</v>
+      </c>
+      <c r="F36" s="6">
+        <v>4034462</v>
+      </c>
+      <c r="G36" s="6">
+        <v>4085858</v>
+      </c>
+      <c r="H36" s="6">
+        <v>4640774</v>
+      </c>
+      <c r="I36" s="6">
+        <v>3704649</v>
+      </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>66</v>
       </c>
-      <c r="B37" s="6"/>
-      <c r="C37" s="6"/>
-      <c r="D37" s="6"/>
-      <c r="E37" s="6"/>
-      <c r="F37" s="6"/>
-      <c r="G37" s="6"/>
-      <c r="H37" s="6"/>
-      <c r="I37" s="6"/>
+      <c r="B37" s="6">
+        <v>6644983</v>
+      </c>
+      <c r="C37" s="6">
+        <v>9349169</v>
+      </c>
+      <c r="D37" s="6">
+        <v>4837665</v>
+      </c>
+      <c r="E37" s="6">
+        <v>352</v>
+      </c>
+      <c r="F37" s="6">
+        <v>330</v>
+      </c>
+      <c r="G37" s="6">
+        <v>4032198</v>
+      </c>
+      <c r="H37" s="6">
+        <v>3250171</v>
+      </c>
+      <c r="I37" s="6">
+        <v>3648672</v>
+      </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>67</v>
       </c>
-      <c r="B38" s="7"/>
-      <c r="C38" s="7"/>
-      <c r="D38" s="7"/>
-      <c r="E38" s="7"/>
-      <c r="F38" s="7"/>
-      <c r="G38" s="7"/>
-      <c r="H38" s="7"/>
-      <c r="I38" s="7"/>
+      <c r="B38" s="7">
+        <v>6619330</v>
+      </c>
+      <c r="C38" s="7">
+        <v>207118</v>
+      </c>
+      <c r="D38" s="7">
+        <v>22126</v>
+      </c>
+      <c r="E38" s="7">
+        <v>5394062</v>
+      </c>
+      <c r="F38" s="7">
+        <v>4904156</v>
+      </c>
+      <c r="G38" s="7">
+        <v>4211687</v>
+      </c>
+      <c r="H38" s="7">
+        <v>3106720</v>
+      </c>
+      <c r="I38" s="7">
+        <v>776818</v>
+      </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>68</v>
       </c>
-      <c r="B39" s="6"/>
-      <c r="C39" s="6"/>
-      <c r="D39" s="6"/>
-      <c r="E39" s="6"/>
-      <c r="F39" s="6"/>
-      <c r="G39" s="6"/>
-      <c r="H39" s="6"/>
-      <c r="I39" s="6"/>
+      <c r="B39" s="6">
+        <v>6635086</v>
+      </c>
+      <c r="C39" s="6">
+        <v>6071830</v>
+      </c>
+      <c r="D39" s="6">
+        <v>5037102</v>
+      </c>
+      <c r="E39" s="6">
+        <v>328</v>
+      </c>
+      <c r="F39" s="6">
+        <v>5999060</v>
+      </c>
+      <c r="G39" s="6">
+        <v>4259821</v>
+      </c>
+      <c r="H39" s="6">
+        <v>4014429</v>
+      </c>
+      <c r="I39" s="6">
+        <v>3984903</v>
+      </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>69</v>
       </c>
-      <c r="B40" s="6"/>
-      <c r="C40" s="6"/>
-      <c r="D40" s="6"/>
-      <c r="E40" s="6"/>
-      <c r="F40" s="6"/>
-      <c r="G40" s="6"/>
-      <c r="H40" s="6"/>
-      <c r="I40" s="6"/>
+      <c r="B40" s="6">
+        <v>6652441</v>
+      </c>
+      <c r="C40" s="6">
+        <v>6722470</v>
+      </c>
+      <c r="D40" s="6">
+        <v>6555153</v>
+      </c>
+      <c r="E40" s="6">
+        <v>4112756</v>
+      </c>
+      <c r="F40" s="6">
+        <v>5219077</v>
+      </c>
+      <c r="G40" s="6">
+        <v>6324828</v>
+      </c>
+      <c r="H40" s="6">
+        <v>802870</v>
+      </c>
+      <c r="I40" s="6">
+        <v>774152</v>
+      </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>70</v>
       </c>
-      <c r="B41" s="6"/>
-      <c r="C41" s="6"/>
-      <c r="D41" s="6"/>
-      <c r="E41" s="6"/>
-      <c r="F41" s="6"/>
-      <c r="G41" s="6"/>
-      <c r="H41" s="6"/>
-      <c r="I41" s="6"/>
+      <c r="B41" s="6">
+        <v>6656917</v>
+      </c>
+      <c r="C41" s="6">
+        <v>9002881</v>
+      </c>
+      <c r="D41" s="6">
+        <v>9632725</v>
+      </c>
+      <c r="E41" s="6">
+        <v>7810362</v>
+      </c>
+      <c r="F41" s="6">
+        <v>6012249</v>
+      </c>
+      <c r="G41" s="6">
+        <v>2923021</v>
+      </c>
+      <c r="H41" s="6">
+        <v>962741</v>
+      </c>
+      <c r="I41" s="6">
+        <v>1070428</v>
+      </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>71</v>
       </c>
-      <c r="B42" s="6"/>
-      <c r="C42" s="6"/>
-      <c r="D42" s="6"/>
-      <c r="E42" s="6"/>
-      <c r="F42" s="6"/>
-      <c r="G42" s="6"/>
-      <c r="H42" s="6"/>
-      <c r="I42" s="6"/>
+      <c r="B42" s="6">
+        <v>6579167</v>
+      </c>
+      <c r="C42" s="6">
+        <v>9375598</v>
+      </c>
+      <c r="D42" s="6">
+        <v>3912551</v>
+      </c>
+      <c r="E42" s="6">
+        <v>3748765</v>
+      </c>
+      <c r="F42" s="6">
+        <v>4614069</v>
+      </c>
+      <c r="G42" s="6">
+        <v>3336465</v>
+      </c>
+      <c r="H42" s="6">
+        <v>3289507</v>
+      </c>
+      <c r="I42" s="6">
+        <v>3254236</v>
+      </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>72</v>
       </c>
-      <c r="B43" s="6"/>
-      <c r="C43" s="6"/>
-      <c r="D43" s="6"/>
-      <c r="E43" s="6"/>
-      <c r="F43" s="6"/>
-      <c r="G43" s="6"/>
-      <c r="H43" s="6"/>
-      <c r="I43" s="6"/>
+      <c r="B43" s="6">
+        <v>6645439</v>
+      </c>
+      <c r="C43" s="6">
+        <v>6643010</v>
+      </c>
+      <c r="D43" s="6">
+        <v>5774060</v>
+      </c>
+      <c r="E43" s="6">
+        <v>3580392</v>
+      </c>
+      <c r="F43" s="6">
+        <v>4279751</v>
+      </c>
+      <c r="G43" s="6">
+        <v>1097226</v>
+      </c>
+      <c r="H43" s="6">
+        <v>1840131</v>
+      </c>
+      <c r="I43" s="6">
+        <v>947083</v>
+      </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>73</v>
       </c>
-      <c r="B44" s="6"/>
-      <c r="C44" s="6"/>
-      <c r="D44" s="6"/>
-      <c r="E44" s="6"/>
-      <c r="F44" s="6"/>
-      <c r="G44" s="6"/>
-      <c r="H44" s="6"/>
-      <c r="I44" s="6"/>
+      <c r="B44" s="6">
+        <v>6625124</v>
+      </c>
+      <c r="C44" s="6">
+        <v>6621240</v>
+      </c>
+      <c r="D44" s="6">
+        <v>5667697</v>
+      </c>
+      <c r="E44" s="6">
+        <v>8987555</v>
+      </c>
+      <c r="F44" s="6">
+        <v>3144250</v>
+      </c>
+      <c r="G44" s="6">
+        <v>519</v>
+      </c>
+      <c r="H44" s="6">
+        <v>3302377</v>
+      </c>
+      <c r="I44" s="6">
+        <v>3737248</v>
+      </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>74</v>
       </c>
-      <c r="B45" s="6"/>
-      <c r="C45" s="6"/>
-      <c r="D45" s="6"/>
-      <c r="E45" s="6"/>
-      <c r="F45" s="6"/>
-      <c r="G45" s="6"/>
-      <c r="H45" s="6"/>
-      <c r="I45" s="6"/>
+      <c r="B45" s="6">
+        <v>6571878</v>
+      </c>
+      <c r="C45" s="6">
+        <v>6424347</v>
+      </c>
+      <c r="D45" s="6">
+        <v>5281711</v>
+      </c>
+      <c r="E45" s="6">
+        <v>198</v>
+      </c>
+      <c r="F45" s="6">
+        <v>201</v>
+      </c>
+      <c r="G45" s="6">
+        <v>2677151</v>
+      </c>
+      <c r="H45" s="6">
+        <v>1022400</v>
+      </c>
+      <c r="I45" s="6">
+        <v>11716</v>
+      </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>75</v>
       </c>
-      <c r="B46" s="6"/>
-      <c r="C46" s="6"/>
-      <c r="D46" s="6"/>
-      <c r="E46" s="6"/>
-      <c r="F46" s="6"/>
-      <c r="G46" s="6"/>
-      <c r="H46" s="6"/>
-      <c r="I46" s="6"/>
+      <c r="B46" s="6">
+        <v>6594579</v>
+      </c>
+      <c r="C46" s="6">
+        <v>6369565</v>
+      </c>
+      <c r="D46" s="6">
+        <v>7150808</v>
+      </c>
+      <c r="E46" s="6">
+        <v>1182672</v>
+      </c>
+      <c r="F46" s="6">
+        <v>3102419</v>
+      </c>
+      <c r="G46" s="6">
+        <v>2798104</v>
+      </c>
+      <c r="H46" s="6">
+        <v>716814</v>
+      </c>
+      <c r="I46" s="6">
+        <v>812753</v>
+      </c>
     </row>
     <row r="49" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A49" s="9" t="s">
